--- a/src/excel/type_of_student.xlsx
+++ b/src/excel/type_of_student.xlsx
@@ -1,21 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\manager_Student\src\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+  <si>
+    <t>std_name</t>
+  </si>
+  <si>
+    <t>class_name</t>
+  </si>
+  <si>
+    <t>studentId</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Phan Đình Phùng</t>
+  </si>
+  <si>
+    <t>lop1</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Đức</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Trần Nguyễn Thu Thảo</t>
+  </si>
+  <si>
+    <t>Nguyen Anh Duc</t>
+  </si>
+  <si>
+    <t>Cao Anh Duc</t>
+  </si>
+  <si>
+    <t>lop3</t>
+  </si>
+  <si>
+    <t>Bùi Tuấn Trung</t>
+  </si>
+  <si>
+    <t>Trần Nguyễn Mai Vy</t>
+  </si>
+  <si>
+    <t>Phạm Vũ Hiệp</t>
+  </si>
+  <si>
+    <t>Pham Van Long</t>
+  </si>
+  <si>
+    <t>std_id</t>
+  </si>
+  <si>
+    <t>${table:student.id}</t>
+  </si>
+  <si>
+    <t>${table:student.name}</t>
+  </si>
+  <si>
+    <t>${table:student}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,6 +130,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -376,65 +462,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>std_name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>class_name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>studentId</v>
-      </c>
-      <c r="D1" t="str">
-        <v>tb</v>
-      </c>
-      <c r="E1" t="str">
-        <v>result</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Phan Đình Phùng</v>
-      </c>
-      <c r="B2" t="str">
-        <v>lop1</v>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>9.160000038146972</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Good</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Nguyễn Minh Đức</v>
-      </c>
-      <c r="B3" t="str">
-        <v>lop1</v>
+        <v>9.1600000381469719</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -442,16 +542,16 @@
       <c r="D3">
         <v>7.5</v>
       </c>
-      <c r="E3" t="str">
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Trần Nguyễn Thu Thảo</v>
-      </c>
-      <c r="B4" t="str">
-        <v>lop1</v>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -459,16 +559,16 @@
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" t="str">
-        <v>Good</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Nguyen Anh Duc</v>
-      </c>
-      <c r="B5" t="str">
-        <v>lop1</v>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -476,50 +576,50 @@
       <c r="D5">
         <v>6.375</v>
       </c>
-      <c r="E5" t="str">
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Cao Anh Duc</v>
-      </c>
-      <c r="B6" t="str">
-        <v>lop3</v>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>9.350000023841858</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Good</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Bùi Tuấn Trung</v>
-      </c>
-      <c r="B7" t="str">
-        <v>lop3</v>
+        <v>9.3500000238418579</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>7.674999952316284</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Trần Nguyễn Mai Vy</v>
-      </c>
-      <c r="B8" t="str">
-        <v>lop3</v>
+        <v>7.6749999523162842</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -527,16 +627,16 @@
       <c r="D8">
         <v>9.5</v>
       </c>
-      <c r="E8" t="str">
-        <v>Good</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Phạm Vũ Hiệp</v>
-      </c>
-      <c r="B9" t="str">
-        <v>lop3</v>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -544,16 +644,16 @@
       <c r="D9">
         <v>9.875</v>
       </c>
-      <c r="E9" t="str">
-        <v>Good</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Pham Van Long</v>
-      </c>
-      <c r="B10" t="str">
-        <v>lop3</v>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -561,82 +661,85 @@
       <c r="D10">
         <v>9.25</v>
       </c>
-      <c r="E10" t="str">
-        <v>Good</v>
+      <c r="E10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError sqref="A1:E10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>std_id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>std_name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>class_name</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Phan Đình Phùng</v>
-      </c>
-      <c r="C2" t="str">
-        <v>lop1</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="str">
-        <v>Trần Nguyễn Thu Thảo</v>
-      </c>
-      <c r="C3" t="str">
-        <v>lop1</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
-      <c r="B4" t="str">
-        <v>Phạm Vũ Hiệp</v>
-      </c>
-      <c r="C4" t="str">
-        <v>lop3</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12</v>
       </c>
-      <c r="B5" t="str">
-        <v>Pham Van Long</v>
-      </c>
-      <c r="C5" t="str">
-        <v>lop3</v>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError sqref="A1:C5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>